--- a/Released/BOM/HF1R0.xlsx
+++ b/Released/BOM/HF1R0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\HF1R0x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E1337-8E44-4191-8D08-5C4174937876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37B3577-C659-47BB-98F6-46C37C183D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,6 +541,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -560,9 +563,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +943,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1003,11 +1003,11 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="30">
         <v>2</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1020,11 +1020,11 @@
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="31">
         <v>45295</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1037,9 +1037,9 @@
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
       <c r="D9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="25">
@@ -1179,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
